--- a/biology/Zoologie/Cheiracanthium_punctorium/Cheiracanthium_punctorium.xlsx
+++ b/biology/Zoologie/Cheiracanthium_punctorium/Cheiracanthium_punctorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheiracanthium punctorium, la chiracanthe nourrice est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheiracanthium punctorium, la chiracanthe nourrice est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de l'Europe à l'Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de l'Europe à l'Asie centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7,5 à 12 mm et les femelles de 10 à 15 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7,5 à 12 mm et les femelles de 10 à 15 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Morsure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La morsure du mâle aux chélicères importantes est susceptible de percer la peau humaine et de provoquer une douleur similaire, voire plus forte qu'une piqûre de guêpe ainsi que des réactions de nausée, bien que, comme pour toutes envenimations, les symptômes peuvent très fortement différer selon les personnes.
 </t>
